--- a/public/assets/xlsx/plantilla.xlsx
+++ b/public/assets/xlsx/plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\megaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\whatsappapi\public\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CD1C33-7453-4DA1-ADFD-D4374321BCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537F0B0-CE0C-4472-BAFA-303B136E9484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="3720" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>lada</t>
   </si>
@@ -37,13 +37,28 @@
   </si>
   <si>
     <t>jose manuel robles carlos</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>puesto</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gerente</t>
+  </si>
+  <si>
+    <t>conocido@conodico.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +70,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,14 +100,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,7 +400,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +410,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>521</v>
       </c>
@@ -395,8 +430,17 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -404,7 +448,10 @@
       <c r="E4" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{FBBB0BE3-86B2-401E-B1C3-573A7B742E79}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>